--- a/$HUMA.xlsx
+++ b/$HUMA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6719083C-C915-4FD9-BD6B-7CAC0D6D566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356FA81-7BDE-4F20-84B9-223A8F9955E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="0" windowWidth="17760" windowHeight="21000" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
+    <workbookView xWindow="20610" yWindow="0" windowWidth="17370" windowHeight="21000" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialysis data " sheetId="1" r:id="rId1"/>
     <sheet name="Trauma data" sheetId="2" r:id="rId2"/>
+    <sheet name="PTFE Data " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
   <si>
     <t xml:space="preserve">HUMA </t>
   </si>
@@ -84,9 +85,6 @@
     <t xml:space="preserve">looked at functional patency(?) at 6mths and secondary patency at 12mths co-primary endpts </t>
   </si>
   <si>
-    <t>fcn pat</t>
-  </si>
-  <si>
     <t>ATEV</t>
   </si>
   <si>
@@ -198,9 +196,6 @@
     <t>V-017/ NCT05873959</t>
   </si>
   <si>
-    <t>observational, n=17, retrospective, humanatarian basis, life or limb threatening trauma</t>
-  </si>
-  <si>
     <t>V-006/ NCT02644941</t>
   </si>
   <si>
@@ -238,6 +233,369 @@
   </si>
   <si>
     <t>completion 12/2024</t>
+  </si>
+  <si>
+    <t>Utilization, patency, and complications associated with vascular access for hemodialysis in the United States</t>
+  </si>
+  <si>
+    <t>longer term data shows the difference much more easily in primary pat vs 2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the synth actually touches/ crosses AVF initially at the 4-6mth mark </t>
+  </si>
+  <si>
+    <t>pts had them btwn June 2022 and May 2023</t>
+  </si>
+  <si>
+    <t>Pimary outcomes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rate of adverse events up to 12mths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary pat at 30days </t>
+  </si>
+  <si>
+    <t>Secondary outcomes:</t>
+  </si>
+  <si>
+    <t>time frame when HAV has not been replaced, ligated or removed, up to 12mths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frequency of adverse events of special interest (AESIs), up to 12mths</t>
+  </si>
+  <si>
+    <t>rate of affected limb salvage/ amputation, up to 12mths</t>
+  </si>
+  <si>
+    <t>patency of HAV (primary, secondary, primary assisted), up to 12mths</t>
+  </si>
+  <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>last update was aug 29, 2024</t>
+  </si>
+  <si>
+    <t>eligibility: Life expectancy of at least 1 year?</t>
+  </si>
+  <si>
+    <t>Primary Outcomes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAV primary patency, 30days </t>
+  </si>
+  <si>
+    <t>the interval from the time of access placement until any intervention designed to maintain or reestablish patency, access thrombosis or the measurement of patency', i.e., patent without interventions</t>
+  </si>
+  <si>
+    <t>freq and severity of A.E.s, 36mths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary outcomes: </t>
+  </si>
+  <si>
+    <t>limb viability, 36mths</t>
+  </si>
+  <si>
+    <t>HAV primary pat, primary asssisted, secondary, 36mths</t>
+  </si>
+  <si>
+    <t>rate of HAV interventions, 36mths</t>
+  </si>
+  <si>
+    <t>patient survival, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV aneurysm formation, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV pseudoaneurysm formation, 36mths</t>
+  </si>
+  <si>
+    <t>HAV remodelling by histopathology of clin explants, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of anastomotic bleeding or spont. Rupture, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV infection, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV thrombosis, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV removal, 36mths</t>
+  </si>
+  <si>
+    <t>Freq of HAV hemodynamically sig. stenosis (&gt;70% in duplex ultrasound), 36mths</t>
+  </si>
+  <si>
+    <t>Study regd 2016-12-29</t>
+  </si>
+  <si>
+    <t>Last update: 2023-10-31</t>
+  </si>
+  <si>
+    <t>originally wanted all these to be 12mths not 36mths</t>
+  </si>
+  <si>
+    <t>study start: 2018-09-01</t>
+  </si>
+  <si>
+    <t>enrollment done: 2020-09-01</t>
+  </si>
+  <si>
+    <t>Topline data in slides:</t>
+  </si>
+  <si>
+    <t>Topline data PR, 2023-12-12</t>
+  </si>
+  <si>
+    <t>n=69, 51 had vascular injury of extremities, evln group</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>30day secondary pat</t>
+  </si>
+  <si>
+    <t>lit rev synth graft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amputation rate </t>
+  </si>
+  <si>
+    <t>primary pat (time??)</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>retrospective, observational, n=16, retrospective, humanatarian basis, life or limb threatening trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explosive vs  gunshot wounds ? </t>
+  </si>
+  <si>
+    <t>Patency of arterial repairs from wartime extremity vascular injuries</t>
+  </si>
+  <si>
+    <t>doi: 10.1136/tsaco-2020-000616</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7768973/</t>
+  </si>
+  <si>
+    <t>early upper extremity amputation rates range 9.3%-12.1% (24, 35)</t>
+  </si>
+  <si>
+    <t>reporting long term lower limb salvage rates of 74-82.7% (3,4)</t>
+  </si>
+  <si>
+    <t>noting issue of not getting patency follow-up data, only amputation</t>
+  </si>
+  <si>
+    <t>VA Vascular Injury Study (VAVIS)</t>
+  </si>
+  <si>
+    <t>difference btwn civ and wartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civ should be better </t>
+  </si>
+  <si>
+    <t>difference between explosive and gunshots. Gunshots worse</t>
+  </si>
+  <si>
+    <t>civ studies (32,33)</t>
+  </si>
+  <si>
+    <t>VA Vascular Injury Study (VAVIS) (37,38), younger possibly fitter cohort</t>
+  </si>
+  <si>
+    <t>We did not find comparable patency studies in the literature on combat‐related arterial injuries.</t>
+  </si>
+  <si>
+    <t>NOT POSSIBLE</t>
+  </si>
+  <si>
+    <t>BLA submitted in December 2023, priority review granted in Feb 2024, PDUFA Aug 10, 2024</t>
+  </si>
+  <si>
+    <t>approval of the Human Acellular Vessel (HAV) in urgent arterial repair following extremity vascular trauma when synthetic graft is not indicated, and when autologous vein use is not feasible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saphenous/ cephalic vein </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10 patent postoperatively </t>
+  </si>
+  <si>
+    <t>mean follow up 59mths, (23-139mths)</t>
+  </si>
+  <si>
+    <t>n=17</t>
+  </si>
+  <si>
+    <t>n=10, got angiogrpahy</t>
+  </si>
+  <si>
+    <t>normaly patency is 50-60%, and the increase in patency rates affected by platelet agents/ statis/ yearly duplex ultrasound is no less than 12% (conservatively)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclusion criteria much less stringent for this group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusion: </t>
+  </si>
+  <si>
+    <t>1. Known medical condition which would preclude long term antiplatelet therapy after resolution of acute injuries</t>
+  </si>
+  <si>
+    <t>Limb Trauma with Arterial Injury: Long-term Performance of Venous Interposition Grafts</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/10.1055/s-2003-38986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECRI meta data </t>
+  </si>
+  <si>
+    <t>Grafts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 human studies </t>
+  </si>
+  <si>
+    <t>Appendix D</t>
+  </si>
+  <si>
+    <t>Local Host responses, reported:</t>
+  </si>
+  <si>
+    <t>patency, thrombosis, occlusion, hematoma and complication rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no dif in out come of PTFE vs other graft material/ technique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemodialysis </t>
+  </si>
+  <si>
+    <t>2019 SR Flixene and Acuseal</t>
+  </si>
+  <si>
+    <t>Flixene</t>
+  </si>
+  <si>
+    <t>Acuseal</t>
+  </si>
+  <si>
+    <t>mTime to first cannulation</t>
+  </si>
+  <si>
+    <t>2-21d</t>
+  </si>
+  <si>
+    <t>1-15d</t>
+  </si>
+  <si>
+    <t>primary pat, 12m</t>
+  </si>
+  <si>
+    <t>secondary pat, 12m</t>
+  </si>
+  <si>
+    <t>steal syndrome</t>
+  </si>
+  <si>
+    <t>0-8%</t>
+  </si>
+  <si>
+    <t>0-11%</t>
+  </si>
+  <si>
+    <t>access thrombosis</t>
+  </si>
+  <si>
+    <t>11-29%</t>
+  </si>
+  <si>
+    <t>17-41%</t>
+  </si>
+  <si>
+    <t>pseudoaneurym</t>
+  </si>
+  <si>
+    <t>0-6%</t>
+  </si>
+  <si>
+    <t>0-15%</t>
+  </si>
+  <si>
+    <t>Avflo</t>
+  </si>
+  <si>
+    <t>polyurethane Vectra</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>1-19d</t>
+  </si>
+  <si>
+    <t>16-42%</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>0-3.5%</t>
+  </si>
+  <si>
+    <t>23-37%</t>
+  </si>
+  <si>
+    <t>0-17%</t>
+  </si>
+  <si>
+    <t>primary pat, 6m</t>
+  </si>
+  <si>
+    <t>assisted primary pat, 12m</t>
+  </si>
+  <si>
+    <t>assisted primary pat, 24m</t>
+  </si>
+  <si>
+    <t>assisted primary pat, 36m</t>
+  </si>
+  <si>
+    <t>standard PTFEe</t>
+  </si>
+  <si>
+    <t>heparin bonded ePTFE graft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 single arm study, ePTFE study </t>
+  </si>
+  <si>
+    <t>secondary pat, 24m</t>
+  </si>
+  <si>
+    <t>secondary pat, 36m</t>
+  </si>
+  <si>
+    <t>fcn pat, 6m</t>
+  </si>
+  <si>
+    <t>2nd pat, 12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">much fewer thromboses in haparin bonded graft </t>
   </si>
 </sst>
 </file>
@@ -245,9 +603,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +650,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +679,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -352,17 +731,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -371,10 +830,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -432,6 +908,138 @@
         <a:xfrm>
           <a:off x="539750" y="3125753"/>
           <a:ext cx="5072088" cy="1055396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1212851</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226863</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>64117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4F341-83CE-23B6-A6E1-AFDA081C58D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212851" y="14979650"/>
+          <a:ext cx="2106462" cy="1556367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219507</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B0722F-0EE9-F334-1960-B9236B28FDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263650" y="16840200"/>
+          <a:ext cx="2048307" cy="1612900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113013</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB84F1F9-9362-6B4C-2094-8F6B86434934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263651" y="18745200"/>
+          <a:ext cx="1941812" cy="1530350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C12F87-22F6-4A73-AE59-8F1AD2B65A37}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,7 +1386,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -809,15 +1417,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1">
         <v>0.81299999999999994</v>
@@ -828,7 +1436,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1">
         <v>0.68300000000000005</v>
@@ -837,27 +1445,27 @@
         <v>0.622</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
@@ -872,82 +1480,89 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="46" spans="1:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>23</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
         <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>73884</v>
@@ -958,7 +1573,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5">
         <v>0.79</v>
@@ -969,46 +1584,46 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
         <v>32</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3">
         <v>0.42699999999999999</v>
@@ -1017,7 +1632,7 @@
         <v>0.315</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1037,7 +1652,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>925</v>
@@ -1057,10 +1672,10 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I63">
         <v>9.6</v>
@@ -1080,7 +1695,7 @@
         <v>0.108</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -1094,7 +1709,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="1">
         <v>0.29499999999999998</v>
@@ -1112,19 +1727,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" s="3">
         <v>0.84</v>
@@ -1138,7 +1753,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="3">
         <v>0.53300000000000003</v>
@@ -1248,18 +1863,18 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="3">
         <v>0.59499999999999997</v>
@@ -1314,7 +1929,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1329,12 +1944,22 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F85" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="101" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="102" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="108" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" xr:uid="{A12A36AC-A7DA-48DF-882C-0CD27683CCCC}"/>
+    <hyperlink ref="B48" r:id="rId1" xr:uid="{A12A36AC-A7DA-48DF-882C-0CD27683CCCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1343,108 +1968,780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C0B03-A85E-4475-AFC6-CFCE429589BC}">
-  <dimension ref="A10:C28"/>
+  <dimension ref="A3:L110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="J14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="J15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="J16" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="J17" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2015</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2002</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B80" r:id="rId1" display="https://doi.org/10.1136%2Ftsaco-2020-000616" xr:uid="{8543E924-11BC-44D4-A5DD-B2DDF9123DD7}"/>
+    <hyperlink ref="B81" r:id="rId2" xr:uid="{C0DE061A-8047-4785-B719-85952DFC7F4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89015B-5796-4A98-8696-46F44A8E800F}">
+  <dimension ref="A3:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="C21" s="9">
+        <v>164</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="25">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>53</v>
+      <c r="C30" s="26">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="30">
+        <v>0.73</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/$HUMA.xlsx
+++ b/$HUMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356FA81-7BDE-4F20-84B9-223A8F9955E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277DCE3F-51DD-4EAB-8211-0798D09E8408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20610" yWindow="0" windowWidth="17370" windowHeight="21000" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
+    <workbookView xWindow="22430" yWindow="1540" windowWidth="15840" windowHeight="17000" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialysis data " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <t xml:space="preserve">HUMA </t>
   </si>
@@ -58,9 +58,6 @@
     <t>called it humacyl</t>
   </si>
   <si>
-    <t xml:space="preserve">ph2, n=72, multi ctr, non-randomized, with life or limb threatening vascular trauma </t>
-  </si>
-  <si>
     <t>limb cohort and torso cohort</t>
   </si>
   <si>
@@ -596,6 +593,12 @@
   </si>
   <si>
     <t xml:space="preserve">much fewer thromboses in haparin bonded graft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph2/3, n=72, multi ctr, non-randomized, with life or limb threatening vascular trauma </t>
+  </si>
+  <si>
+    <t>p=0.389 alone</t>
   </si>
 </sst>
 </file>
@@ -918,50 +921,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1212851</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>226863</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>64117</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4F341-83CE-23B6-A6E1-AFDA081C58D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1212851" y="14979650"/>
-          <a:ext cx="2106462" cy="1556367"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
@@ -987,7 +946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1031,7 +990,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1040,6 +999,50 @@
         <a:xfrm>
           <a:off x="1263651" y="18745200"/>
           <a:ext cx="1941812" cy="1530350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1212850</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325783</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>136587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4F341-83CE-23B6-A6E1-AFDA081C58D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="14825316"/>
+          <a:ext cx="2199585" cy="1611445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C12F87-22F6-4A73-AE59-8F1AD2B65A37}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,53 +1382,53 @@
     <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1">
         <v>0.81299999999999994</v>
@@ -1434,9 +1437,9 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1">
         <v>0.68300000000000005</v>
@@ -1445,27 +1448,30 @@
         <v>0.622</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
@@ -1480,57 +1486,57 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1539,30 +1545,30 @@
         <v>2018</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
         <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>73884</v>
@@ -1573,7 +1579,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="5">
         <v>0.79</v>
@@ -1584,46 +1590,46 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
         <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="3">
         <v>0.42699999999999999</v>
@@ -1632,7 +1638,7 @@
         <v>0.315</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1652,7 +1658,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H62">
         <v>925</v>
@@ -1672,10 +1678,10 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I63">
         <v>9.6</v>
@@ -1695,7 +1701,7 @@
         <v>0.108</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -1709,7 +1715,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="1">
         <v>0.29499999999999998</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H67" s="3">
         <v>0.84</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="3">
         <v>0.53300000000000003</v>
@@ -1863,18 +1869,18 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="3">
         <v>0.59499999999999997</v>
@@ -1929,7 +1935,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1946,12 +1952,12 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1970,196 +1976,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C0B03-A85E-4475-AFC6-CFCE429589BC}">
   <dimension ref="A3:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1">
         <v>0.90200000000000002</v>
@@ -2170,18 +2176,18 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1">
         <v>0.84299999999999997</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2190,12 +2196,12 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1">
         <v>0.02</v>
@@ -2222,25 +2228,25 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1">
         <v>0.90200000000000002</v>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1">
         <v>0.02</v>
@@ -2273,72 +2279,72 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -2346,62 +2352,62 @@
         <v>2020</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2409,12 +2415,12 @@
         <v>2015</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B99" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,37 +2428,37 @@
         <v>2002</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2475,7 @@
   <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2479,83 +2485,83 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
       <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
         <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
         <v>151</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
       <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
         <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1">
         <v>0.433</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="1">
         <v>0.73399999999999999</v>
@@ -2589,71 +2595,71 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
         <v>156</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>157</v>
       </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
       <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
         <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>163</v>
-      </c>
-      <c r="C20" t="s">
-        <v>164</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
         <v>178</v>
-      </c>
-      <c r="C24" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="25">
         <v>0.28999999999999998</v>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="27">
         <v>0.12</v>
@@ -2675,7 +2681,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="25">
         <v>0.41</v>
@@ -2686,7 +2692,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="30">
         <v>0.3</v>
@@ -2697,7 +2703,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="27">
         <v>0.23</v>
@@ -2708,7 +2714,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="25">
         <v>0.81</v>
@@ -2719,7 +2725,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="30">
         <v>0.73</v>
@@ -2730,7 +2736,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="27">
         <v>0.68</v>
@@ -2741,7 +2747,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/$HUMA.xlsx
+++ b/$HUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277DCE3F-51DD-4EAB-8211-0798D09E8408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE9C55-2352-478D-BC5E-9A2A57C28579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22430" yWindow="1540" windowWidth="15840" windowHeight="17000" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
@@ -1977,7 +1977,7 @@
   <dimension ref="A3:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/$HUMA.xlsx
+++ b/$HUMA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE9C55-2352-478D-BC5E-9A2A57C28579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E1623B-BC2A-48E0-A920-012D3C9C8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22430" yWindow="1540" windowWidth="15840" windowHeight="17000" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
+    <workbookView xWindow="17240" yWindow="1020" windowWidth="18820" windowHeight="18170" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialysis data " sheetId="1" r:id="rId1"/>
     <sheet name="Trauma data" sheetId="2" r:id="rId2"/>
-    <sheet name="PTFE Data " sheetId="3" r:id="rId3"/>
+    <sheet name="PAD data" sheetId="4" r:id="rId3"/>
+    <sheet name="PTFE Data " sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="268">
   <si>
     <t xml:space="preserve">HUMA </t>
   </si>
@@ -58,18 +59,9 @@
     <t>called it humacyl</t>
   </si>
   <si>
-    <t>limb cohort and torso cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limb will include upper and lower body </t>
-  </si>
-  <si>
     <t>torso is thorax (minus heart), abdomen, and retrooperitineum</t>
   </si>
   <si>
-    <t>wimplanted as interposition vessel or bypass</t>
-  </si>
-  <si>
     <t>active study 36mths</t>
   </si>
   <si>
@@ -599,6 +591,270 @@
   </si>
   <si>
     <t>p=0.389 alone</t>
+  </si>
+  <si>
+    <t>Initial, short-term placement of prosthetic grafts with subsequent revision to a vein graft was defined as a temporizing procedure, and the patency of the vein graft was reported</t>
+  </si>
+  <si>
+    <t>The Antiplatelet Trialists’ Collaboration found that antiplatelet therapy was associated with a relative risk reduction of 43% in graft occlusion</t>
+  </si>
+  <si>
+    <t>is this all 30d data??</t>
+  </si>
+  <si>
+    <t>2ndary pat, 30d</t>
+  </si>
+  <si>
+    <t>prim pat, 30d</t>
+  </si>
+  <si>
+    <t>amputations</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Combo data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ndary pat, 30d </t>
+  </si>
+  <si>
+    <t>Lifeline, Cytograft USA</t>
+  </si>
+  <si>
+    <t>prim pat1m</t>
+  </si>
+  <si>
+    <t>prim pat 6m</t>
+  </si>
+  <si>
+    <t>Autologous skin fibroblasts, cell sheets, seeded with vein EC</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36874956/</t>
+  </si>
+  <si>
+    <t>Six-year outcomes of a phase II study of human-tissue engineered blood vessels for peripheral arterial bypass</t>
+  </si>
+  <si>
+    <t>Comparative outcomes of arterial bypass using the human acellular vessel and great saphenous vein in patients with chronic limb ischemia</t>
+  </si>
+  <si>
+    <t>comparison btwn GSV and HAV in PAD</t>
+  </si>
+  <si>
+    <t>mostly in tibial bypass</t>
+  </si>
+  <si>
+    <t>group 1, n=34, got HAV</t>
+  </si>
+  <si>
+    <t>group 2, historical, multi-center, single-segment GSV, n=88</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>more smoking, more coronary artery disease (71% v 43%), prior grafting (38% v 14%)</t>
+  </si>
+  <si>
+    <t>more wounds, ischemia, foot infections stage 4 (weird stat, 56% v 33%)</t>
+  </si>
+  <si>
+    <t>previous leg revascularizations (97% v 53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85% of pts had to have HAV sewn together </t>
+  </si>
+  <si>
+    <t>tibial vessels target of surgery 79% vs 100%</t>
+  </si>
+  <si>
+    <t>amputation free survival</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mOperative time </t>
+  </si>
+  <si>
+    <t>364mins</t>
+  </si>
+  <si>
+    <t>464mins</t>
+  </si>
+  <si>
+    <t>p=0.55</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>p=0.20</t>
+  </si>
+  <si>
+    <t>prim assist pat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary pat </t>
+  </si>
+  <si>
+    <t>p=0.44</t>
+  </si>
+  <si>
+    <t>p=0.002</t>
+  </si>
+  <si>
+    <t>p=0.003</t>
+  </si>
+  <si>
+    <t>Outcomes of Arterial Bypass With the Human Acellular Vessel for Chronic Limb-Threatening Ischemia Performed Under the FDA Expanded Access Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limb salvage, limb threatening ischemia, FDA expanded access program </t>
+  </si>
+  <si>
+    <t>n=14, older popln, 12men mAge 62+/- 14yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freedom from graft complications </t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>p=0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carotid, subclavian, acillary pos </t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>p=0.90</t>
+  </si>
+  <si>
+    <t>periphery, 8yr no Aes</t>
+  </si>
+  <si>
+    <t>A Retrospective Cohort Comparison of Expanded Polytetrafluorethylene to Autologous Vein for Vascular Reconstruction in Modern Combat Casualty Care</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>p=0.044</t>
+  </si>
+  <si>
+    <t>n=49, age~25</t>
+  </si>
+  <si>
+    <t>ISS ~20, MESS ~6</t>
+  </si>
+  <si>
+    <t>DATA FOR HISTORICAL COMPARISON</t>
+  </si>
+  <si>
+    <t>Ischemia and functional status of the left arm and quality of life after left subclavian artery coverage during stent grafting of thoracic aortic diseases</t>
+  </si>
+  <si>
+    <t>Watson paper</t>
+  </si>
+  <si>
+    <t>Klocker paper</t>
+  </si>
+  <si>
+    <t>thoracic data. This is not in the patient population</t>
+  </si>
+  <si>
+    <t>The Use of Prosthetic Grafts in Complex Military Vascular Trauma: A Limb Salvage Strategy for Patients With Severely Limited Autologous Conduit</t>
+  </si>
+  <si>
+    <t>(wrong yr reported)</t>
+  </si>
+  <si>
+    <t>n=14, 95 total pts in cohort but 14 got prosthetic grafts for extremirt bypass for vascular injuries</t>
+  </si>
+  <si>
+    <t>blast injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gunshot wound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blunt trauma </t>
+  </si>
+  <si>
+    <t>near term patency</t>
+  </si>
+  <si>
+    <t>PTFE graft</t>
+  </si>
+  <si>
+    <t>then they got a AV graft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no deaths or blowouts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no patients had amputations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3pts </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.avsg.2014.12.026</t>
+  </si>
+  <si>
+    <t>https://www.jvascsurg.org/article/S0741-5214(14)00162-1/fulltext</t>
+  </si>
+  <si>
+    <t>limb cohort and torso cohort, avg age 39 (18-81)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">limb will include upper and lower body, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mostly lower body </t>
+    </r>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>24m</t>
+  </si>
+  <si>
+    <t>V002</t>
+  </si>
+  <si>
+    <t>V004</t>
+  </si>
+  <si>
+    <t>implanted as interposition vessel or bypass</t>
+  </si>
+  <si>
+    <t>non-iatrogenic</t>
+  </si>
+  <si>
+    <t>mostly blast, less gunshot wounds. She actually admits this is better for outcomes</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1076,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -842,7 +1098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -851,9 +1106,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -878,15 +1140,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179353</xdr:rowOff>
+      <xdr:colOff>490055</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80988</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129849</xdr:rowOff>
+      <xdr:colOff>31293</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -909,8 +1171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="539750" y="3125753"/>
-          <a:ext cx="5072088" cy="1055396"/>
+          <a:off x="490055" y="2868440"/>
+          <a:ext cx="5057455" cy="1043800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,13 +1185,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219507</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -965,16 +1227,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1212850</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>113013</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>325783</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>136588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4F341-83CE-23B6-A6E1-AFDA081C58D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="14825316"/>
+          <a:ext cx="2199585" cy="1611445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>413002</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129579</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>111538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,6 +1296,275 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3499654" y="17708217"/>
+          <a:ext cx="2146142" cy="1685234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270566</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>64403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484809</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>44173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ADA090-C698-3506-4451-C109478A9B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5786783" y="17640099"/>
+          <a:ext cx="3251200" cy="1685987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552173</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>117948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407663</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>5524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1464EB2-F3C0-B126-99C4-0B451D3B6B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3031434" y="8201774"/>
+          <a:ext cx="3499838" cy="1891968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498692</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246533</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB2084D-36F0-8A98-A3FB-A1AACC4C0771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4192735" y="5314294"/>
+          <a:ext cx="4606972" cy="986009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4693</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235833</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>41845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF8B75B-53DD-2EA6-3CD4-1A793268C1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166743" y="19888200"/>
+          <a:ext cx="2059940" cy="1330895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>51554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64351</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>86301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835ACE4A-034E-B499-4890-9C76C489715D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536950" y="19939754"/>
+          <a:ext cx="1956651" cy="1323797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>53464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200889</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BD26BF-535E-F907-D136-6E1861D8EB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
@@ -997,8 +1572,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1263651" y="18745200"/>
-          <a:ext cx="1941812" cy="1530350"/>
+          <a:off x="5975350" y="19941664"/>
+          <a:ext cx="2093189" cy="1350444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379390</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC8C1B7-21DE-D462-D8E3-E838B44B6ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="521661"/>
+          <a:ext cx="2786040" cy="1600138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,22 +1634,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:colOff>1365742</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>325783</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>136587</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>382494</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4F341-83CE-23B6-A6E1-AFDA081C58D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECDD97E-6625-5571-710F-4649D9A8EAAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,15 +1658,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1212850" y="14825316"/>
-          <a:ext cx="2199585" cy="1611445"/>
+          <a:off x="1365742" y="2774950"/>
+          <a:ext cx="2845802" cy="1696341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1371,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C12F87-22F6-4A73-AE59-8F1AD2B65A37}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,13 +2013,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1415,20 +2039,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1">
         <v>0.81299999999999994</v>
@@ -1439,7 +2063,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1">
         <v>0.68300000000000005</v>
@@ -1448,524 +2072,614 @@
         <v>0.622</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="8" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="65" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>73884</v>
+      </c>
+      <c r="C70">
+        <v>16533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="G80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <v>925</v>
+      </c>
+      <c r="I81">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>9.6</v>
+      </c>
+      <c r="J82">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="C84" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.377</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.503</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.439</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F103" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F104" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51">
-        <v>73884</v>
-      </c>
-      <c r="C51">
-        <v>16533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.315</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62">
-        <v>925</v>
-      </c>
-      <c r="I62">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63">
-        <v>9.6</v>
-      </c>
-      <c r="J63">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.108</v>
-      </c>
-      <c r="G64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.19899999999999998</v>
-      </c>
-      <c r="C65" s="3">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0.51200000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>3</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G70">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0.377</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.189</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0.42899999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>5</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.48099999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.503</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.439</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1" xr:uid="{A12A36AC-A7DA-48DF-882C-0CD27683CCCC}"/>
+    <hyperlink ref="B67" r:id="rId1" xr:uid="{A12A36AC-A7DA-48DF-882C-0CD27683CCCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1974,198 +2688,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C0B03-A85E-4475-AFC6-CFCE429589BC}">
-  <dimension ref="A3:L110"/>
+  <dimension ref="A3:Q164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>136</v>
+        <v>87</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
-        <v>102</v>
+      <c r="A36" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1">
         <v>0.90200000000000002</v>
@@ -2176,18 +2893,18 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1">
         <v>0.84299999999999997</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2196,18 +2913,21 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1">
         <v>0.02</v>
       </c>
       <c r="D42" s="1">
         <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2215,353 +2935,868 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="32">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>35</v>
+      <c r="A50" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="C51" s="9">
-        <v>0.81</v>
+      <c r="B51" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.2</v>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="1">
         <v>0.02</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C55" s="11">
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>67</v>
+      <c r="B59" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>134</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C68" t="s">
-        <v>70</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>71</v>
+      <c r="C70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C72" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
-        <v>74</v>
+      <c r="B73" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="A79" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="31">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="32">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>2020</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B87" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="22" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2015</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>2015</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>2002</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
+      <c r="B121" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>131</v>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2014</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B132" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2013</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B138" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B139" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A140" s="36"/>
+      <c r="B140" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+      <c r="P140" s="36"/>
+      <c r="Q140" s="36"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B141" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B142" s="35"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>226</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="D147" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2009</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>244</v>
+      </c>
+      <c r="B154" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>246</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>248</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B80" r:id="rId1" display="https://doi.org/10.1136%2Ftsaco-2020-000616" xr:uid="{8543E924-11BC-44D4-A5DD-B2DDF9123DD7}"/>
-    <hyperlink ref="B81" r:id="rId2" xr:uid="{C0DE061A-8047-4785-B719-85952DFC7F4B}"/>
+    <hyperlink ref="B88" r:id="rId1" display="https://doi.org/10.1136%2Ftsaco-2020-000616" xr:uid="{8543E924-11BC-44D4-A5DD-B2DDF9123DD7}"/>
+    <hyperlink ref="B89" r:id="rId2" xr:uid="{C0DE061A-8047-4785-B719-85952DFC7F4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CE884E-B733-4EFD-9677-6057AAE5A4A7}">
+  <dimension ref="A2:D52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89015B-5796-4A98-8696-46F44A8E800F}">
   <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>146</v>
+      <c r="A12" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1">
         <v>0.433</v>
@@ -2578,7 +3813,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1">
         <v>0.73399999999999999</v>
@@ -2595,159 +3830,159 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
         <v>168</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="25">
+        <v>170</v>
+      </c>
+      <c r="B25" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>0.35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="27">
+        <v>150</v>
+      </c>
+      <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="25">
+        <v>171</v>
+      </c>
+      <c r="B27" s="24">
         <v>0.41</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>0.54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="30">
+      <c r="A28" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.3</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>0.41</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="27">
+        <v>173</v>
+      </c>
+      <c r="B29" s="26">
         <v>0.23</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>0.27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="25">
+        <v>151</v>
+      </c>
+      <c r="B30" s="24">
         <v>0.81</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>0.83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="30">
+      <c r="A31" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.73</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>0.83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="27">
+        <v>178</v>
+      </c>
+      <c r="B32" s="26">
         <v>0.68</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>0.81</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
